--- a/biology/Botanique/Eminia_(plante)/Eminia_(plante).xlsx
+++ b/biology/Botanique/Eminia_(plante)/Eminia_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eminia est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Afrique, qui comprend quatre espèces acceptées.
-Les plantes de ce genre, principalement des espèces Eminia holubii et Eminia harmsiana (mais aussi d'autres espèces de Fabaceae), contiennent dans leurs racines des enzymes amylolytiques. Connues sous le nom de munkoyo, ces racines servent dans la région zambézienne à la préparation d'une boisson alcoolisée appelée aussi munkoyo[2].
+Les plantes de ce genre, principalement des espèces Eminia holubii et Eminia harmsiana (mais aussi d'autres espèces de Fabaceae), contiennent dans leurs racines des enzymes amylolytiques. Connues sous le nom de munkoyo, ces racines servent dans la région zambézienne à la préparation d'une boisson alcoolisée appelée aussi munkoyo.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (17 octobre 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (17 octobre 2018) :
 Eminia antennulifera (Baker) Taub.
 Eminia benguellensis Torre
 Eminia harmsiana De Wild.
